--- a/Injections/Injections_Results/Inj_results_2022-07-26.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDCBACE-8F15-B045-8E3A-DCC43661A795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C01413B-C060-D946-88DF-C4E662861447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8200" yWindow="2580" windowWidth="27640" windowHeight="16940" xr2:uid="{B537B67D-4336-9741-9AE0-B632B4F45081}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -113,15 +113,9 @@
     <t>Background data @ -10m</t>
   </si>
   <si>
-    <t>Ave. CO2 ppm</t>
-  </si>
-  <si>
     <t>Ave flux um/m2</t>
   </si>
   <si>
-    <t>Ave k600</t>
-  </si>
-  <si>
     <t>Colmillo</t>
   </si>
   <si>
@@ -147,13 +141,34 @@
   </si>
   <si>
     <t>TDN mg/l</t>
+  </si>
+  <si>
+    <t>%diff in CO2 ppm during injection</t>
+  </si>
+  <si>
+    <t>Ave CO2 ppm (air)</t>
+  </si>
+  <si>
+    <t>Ave CO2 ppm (water)</t>
+  </si>
+  <si>
+    <t>Ave Temp c (air)</t>
+  </si>
+  <si>
+    <t>Ave Temp c (water)</t>
+  </si>
+  <si>
+    <t>Ave k m/d</t>
+  </si>
+  <si>
+    <t>Ave k600 m/d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,6 +223,19 @@
       <name val="Lucida Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -235,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -250,6 +278,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,17 +594,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173AACA0-6003-0B4F-96CA-34FCF7DDAFB1}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -590,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -644,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>50.342550000000003</v>
+        <v>49.011600000000001</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -656,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>72.241410000000002</v>
+        <v>70.331500000000005</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
@@ -665,7 +697,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>2.4849999999999999</v>
@@ -678,7 +710,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>9.3170000000000003E-2</v>
@@ -703,7 +735,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>20</v>
@@ -744,7 +776,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -762,7 +794,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -780,7 +812,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -798,7 +830,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
@@ -816,9 +848,9 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -834,9 +866,9 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -852,9 +884,9 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -870,7 +902,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -878,61 +910,121 @@
         <v>12</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <f>ABS((B18-B16)/AVERAGE(B18,B16))*100</f>
+        <v>3.5297591510881396</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1">
+        <v>278.63799999999998</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1">
+        <v>703</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1">
+        <v>13.85</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1">
+        <v>7.0540000000000003</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="1">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="1">
+      <c r="B33" s="1">
         <v>0.35070000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="1">
+      <c r="G33" s="14"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1">
+        <v>15.76</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="1">
         <v>22.63</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="B36" s="8"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="G37" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Injections/Injections_Results/Inj_results_2022-07-26.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-26.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C01413B-C060-D946-88DF-C4E662861447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF265BCF-4537-EE49-BEEA-3F32D17061E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8200" yWindow="2580" windowWidth="27640" windowHeight="16940" xr2:uid="{B537B67D-4336-9741-9AE0-B632B4F45081}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Site</t>
   </si>
   <si>
-    <t>Slope</t>
-  </si>
-  <si>
     <t>time_start</t>
   </si>
   <si>
@@ -162,6 +159,15 @@
   </si>
   <si>
     <t>Ave k600 m/d</t>
+  </si>
+  <si>
+    <t>slope btw 0 and 25</t>
+  </si>
+  <si>
+    <t>slope btw 25 and 50</t>
+  </si>
+  <si>
+    <t>slope btw 0 and 50</t>
   </si>
 </sst>
 </file>
@@ -263,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -280,6 +286,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173AACA0-6003-0B4F-96CA-34FCF7DDAFB1}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,409 +630,427 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8"/>
+      <c r="A3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0.12799999999999984</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
+      <c r="A4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.32800000000000012</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.13927580000000001</v>
+      <c r="A5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.22799999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0.39583333333333331</v>
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0.54166666666666663</v>
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.13927580000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7.0503169999999997</v>
+        <v>2</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>49.011600000000001</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.54166666666666663</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>70.331500000000005</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+        <v>7.0503169999999997</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11">
-        <v>2.4849999999999999</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>49.011600000000001</v>
+      </c>
+      <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12">
-        <v>9.3170000000000003E-2</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>70.331500000000005</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>2.4849999999999999</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>9.3170000000000003E-2</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="10">
-        <v>274.85070000000002</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10">
-        <v>710.3039</v>
-      </c>
-      <c r="C16" s="10">
-        <v>861.20429999999999</v>
-      </c>
-      <c r="D16" s="10">
-        <v>304.63290000000001</v>
-      </c>
-      <c r="E16" s="10">
-        <v>769.86980000000005</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" s="10">
-        <v>701.00160000000005</v>
-      </c>
-      <c r="C17" s="10">
-        <v>1591.0233000000001</v>
-      </c>
-      <c r="D17" s="10">
-        <v>749.79560000000004</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1304.8196</v>
-      </c>
-      <c r="F17" s="1"/>
+        <v>274.85070000000002</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B18" s="10">
-        <v>685.66669999999999</v>
+        <v>710.3039</v>
       </c>
       <c r="C18" s="10">
-        <v>839.81169999999997</v>
+        <v>861.20429999999999</v>
       </c>
       <c r="D18" s="10">
-        <v>268.78829999999999</v>
+        <v>304.63290000000001</v>
       </c>
       <c r="E18" s="10">
-        <v>748.16909999999996</v>
+        <v>769.86980000000005</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>60.189999999999976</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <v>122.22250000000003</v>
-      </c>
-      <c r="G19" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B19" s="10">
+        <v>701.00160000000005</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1591.0233000000001</v>
+      </c>
+      <c r="D19" s="10">
+        <v>749.79560000000004</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1304.8196</v>
+      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B20" s="10">
+        <v>685.66669999999999</v>
       </c>
       <c r="C20" s="10">
-        <v>125.41</v>
+        <v>839.81169999999997</v>
       </c>
       <c r="D20" s="10">
-        <v>143.53</v>
+        <v>268.78829999999999</v>
       </c>
       <c r="E20" s="10">
-        <v>138.80000000000001</v>
-      </c>
-      <c r="G20" s="2"/>
+        <v>748.16909999999996</v>
+      </c>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="12">
-        <v>0.49407407407407411</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0.49707175925925928</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0.49822916666666667</v>
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>60.189999999999976</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>122.22250000000003</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1">
-        <v>150.76</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C22" s="10">
+        <v>125.41</v>
+      </c>
+      <c r="D22" s="10">
+        <v>143.53</v>
+      </c>
+      <c r="E22" s="10">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0.51135416666666667</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0.49407407407407411</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.49707175925925928</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.49822916666666667</v>
+      </c>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1">
+        <v>150.76</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.51135416666666667</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="G26" s="14"/>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="14"/>
+      <c r="A27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28">
-        <f>ABS((B18-B16)/AVERAGE(B18,B16))*100</f>
-        <v>3.5297591510881396</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="1"/>
+      <c r="A28" s="3"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="1">
-        <v>278.63799999999998</v>
+      <c r="A29" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="G29" s="14"/>
-      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="1">
-        <v>703</v>
-      </c>
-      <c r="G30" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <f>ABS((B20-B18)/AVERAGE(B20,B18))*100</f>
+        <v>3.5297591510881396</v>
+      </c>
+      <c r="G30" s="3"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>38</v>
+      <c r="A31" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="1">
-        <v>13.85</v>
+        <v>278.63799999999998</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1">
-        <v>7.0540000000000003</v>
+        <v>703</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1">
-        <v>0.35070000000000001</v>
+        <v>13.85</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1">
-        <v>15.76</v>
+        <v>7.0540000000000003</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B35" s="1">
-        <v>22.63</v>
+        <v>0.35070000000000001</v>
       </c>
       <c r="G35" s="14"/>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="B36" s="1">
+        <v>15.76</v>
+      </c>
       <c r="G36" s="14"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="G37" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="B37" s="1">
+        <v>22.63</v>
+      </c>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="G39" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Injections/Injections_Results/Inj_results_2022-07-26.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-26.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF265BCF-4537-EE49-BEEA-3F32D17061E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C8752F-5431-8F41-AD78-5E3E849426A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8200" yWindow="2580" windowWidth="27640" windowHeight="16940" xr2:uid="{B537B67D-4336-9741-9AE0-B632B4F45081}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>slope btw 0 and 50</t>
+  </si>
+  <si>
+    <t>Ave Pressure kpa (air)</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -286,8 +289,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173AACA0-6003-0B4F-96CA-34FCF7DDAFB1}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,26 +635,26 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3">
         <v>0.12799999999999984</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4">
         <v>0.32800000000000012</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5">
         <v>0.22799999999999998</v>
       </c>
     </row>
@@ -1001,56 +1002,66 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B34" s="1">
-        <v>7.0540000000000003</v>
+        <v>64.56</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1">
-        <v>0.35070000000000001</v>
+        <v>7.0540000000000003</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B36" s="1">
-        <v>15.76</v>
+        <v>0.35070000000000001</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1">
-        <v>22.63</v>
+        <v>15.76</v>
       </c>
       <c r="G37" s="14"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="B38" s="1">
+        <v>22.63</v>
+      </c>
       <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="G39" s="15"/>
+      <c r="B40" s="8"/>
+      <c r="G40" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
